--- a/驾考/枪伤计算.xlsx
+++ b/驾考/枪伤计算.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jinxi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\jinx.articles\驾考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EA9EF8-F837-48E3-9789-40A337FC4BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1628818B-E8D6-4B3E-93E1-4BF8CF83106D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="物理子弹" sheetId="1" r:id="rId1"/>
+    <sheet name="电子弹" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="23">
   <si>
     <t>战力</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +122,10 @@
   </si>
   <si>
     <t>中距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电系核心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +470,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -575,22 +580,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>12688</v>
+        <v>11688</v>
       </c>
       <c r="C3" s="1">
         <v>1006</v>
       </c>
       <c r="D3" s="1">
-        <v>1135</v>
+        <v>1095</v>
       </c>
       <c r="E3" s="1">
         <v>187</v>
       </c>
       <c r="F3" s="1">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="G3" s="1">
-        <v>1708</v>
+        <v>1692</v>
       </c>
       <c r="H3" s="1">
         <v>72</v>
@@ -613,11 +618,11 @@
       </c>
       <c r="N3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100)</f>
-        <v>151421.02156799997</v>
+        <v>127994.51596799999</v>
       </c>
       <c r="O3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100+J3/100)</f>
-        <v>319666.601088</v>
+        <v>279566.96908800001</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -692,35 +697,35 @@
       </c>
       <c r="B7" s="1">
         <f>N3*0.9</f>
-        <v>136278.91941119998</v>
+        <v>115195.0643712</v>
       </c>
       <c r="C7" s="1">
         <f>B7*(1+G3/100+H3/100)</f>
-        <v>2562043.6849305592</v>
+        <v>2147235.9998791679</v>
       </c>
       <c r="D7" s="1">
         <f>O3*0.9</f>
-        <v>287699.94097920001</v>
+        <v>251610.27217920002</v>
       </c>
       <c r="E7" s="1">
         <f>D7*(1+G3/100+H3/100)</f>
-        <v>5408758.8904089592</v>
+        <v>4690015.4734202884</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>ROUND(B7/1000,2)&amp;"K"</f>
-        <v>136.28K</v>
+        <v>115.2K</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>ROUND(C7/1000/1000,2)&amp;"M"</f>
-        <v>2.56M</v>
+        <v>2.15M</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>ROUND(D7/1000,2)&amp;"K"</f>
-        <v>287.7K</v>
+        <v>251.61K</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>ROUND(E7/1000/1000,2)&amp;"M"</f>
-        <v>5.41M</v>
+        <v>4.69M</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -795,35 +800,35 @@
       </c>
       <c r="B11" s="1">
         <f>N3*1</f>
-        <v>151421.02156799997</v>
+        <v>127994.51596799999</v>
       </c>
       <c r="C11" s="1">
         <f>B11*(1+G3/100+H3/100)</f>
-        <v>2846715.2054783991</v>
+        <v>2385817.7776435199</v>
       </c>
       <c r="D11" s="1">
         <f>O3*1</f>
-        <v>319666.601088</v>
+        <v>279566.96908800001</v>
       </c>
       <c r="E11" s="1">
         <f>D11*(1+G2/100+H2/100)</f>
-        <v>5958585.4442803198</v>
+        <v>5211128.3038003203</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>ROUND(B11/1000,2)&amp;"K"</f>
-        <v>151.42K</v>
+        <v>127.99K</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>ROUND(C11/1000/1000,2)&amp;"M"</f>
-        <v>2.85M</v>
+        <v>2.39M</v>
       </c>
       <c r="H11" s="1" t="str">
         <f>ROUND(D11/1000,2)&amp;"K"</f>
-        <v>319.67K</v>
+        <v>279.57K</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>ROUND(E11/1000/1000,2)&amp;"M"</f>
-        <v>5.96M</v>
+        <v>5.21M</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -898,35 +903,510 @@
       </c>
       <c r="B15" s="1">
         <f>N3*1.1</f>
-        <v>166563.12372479998</v>
+        <v>140793.9675648</v>
       </c>
       <c r="C15" s="1">
         <f>B15*(1+G2/100+H2/100)</f>
-        <v>3104736.6262302715</v>
+        <v>2624399.555407872</v>
       </c>
       <c r="D15" s="1">
         <f>O3*1.1</f>
-        <v>351633.26119680004</v>
+        <v>307523.66599680006</v>
       </c>
       <c r="E15" s="1">
         <f>D15*(1+G2/100+H2/100)</f>
-        <v>6554443.9887083527</v>
+        <v>5732241.134180353</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>ROUND(B15/1000,2)&amp;"K"</f>
-        <v>166.56K</v>
+        <v>140.79K</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>ROUND(C15/1000/1000,2)&amp;"M"</f>
-        <v>3.1M</v>
+        <v>2.62M</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>ROUND(D15/1000,2)&amp;"K"</f>
-        <v>351.63K</v>
+        <v>307.52K</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>ROUND(E15/1000/1000,2)&amp;"M"</f>
-        <v>6.55M</v>
+        <v>5.73M</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44CF00C-5EA3-4A4A-AE60-8CB3FCEA2FA3}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11688</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1006</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1095</v>
+      </c>
+      <c r="E2" s="1">
+        <v>187</v>
+      </c>
+      <c r="F2" s="1">
+        <v>80</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1692</v>
+      </c>
+      <c r="H2" s="1">
+        <v>72</v>
+      </c>
+      <c r="I2" s="1">
+        <f>K2+L2+M2</f>
+        <v>84</v>
+      </c>
+      <c r="J2" s="1">
+        <v>360</v>
+      </c>
+      <c r="K2" s="1">
+        <v>36</v>
+      </c>
+      <c r="L2" s="1">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1">
+        <v>18</v>
+      </c>
+      <c r="N2" s="1">
+        <f>(B2+C2)*0.24*(1+D2/100+E2/100)*(1+F2/100+I2/100)</f>
+        <v>111153.13228799999</v>
+      </c>
+      <c r="O2" s="1">
+        <f>(B2+C2)*0.24*(1+D2/100+E2/100)*(1+F2/100+I2/100+J2/100)</f>
+        <v>262725.58540799998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11688</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1006</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1095</v>
+      </c>
+      <c r="E3" s="1">
+        <v>187</v>
+      </c>
+      <c r="F3" s="1">
+        <v>80</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1692</v>
+      </c>
+      <c r="H3" s="1">
+        <v>72</v>
+      </c>
+      <c r="I3" s="1">
+        <f>K3+L3+M3</f>
+        <v>84</v>
+      </c>
+      <c r="J3" s="1">
+        <v>360</v>
+      </c>
+      <c r="K3" s="1">
+        <v>36</v>
+      </c>
+      <c r="L3" s="1">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1">
+        <v>18</v>
+      </c>
+      <c r="N3" s="1">
+        <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100)</f>
+        <v>111153.13228799999</v>
+      </c>
+      <c r="O3" s="1">
+        <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100+J3/100)</f>
+        <v>262725.58540799998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <f>N2*0.9</f>
+        <v>100037.8190592</v>
+      </c>
+      <c r="C6" s="1">
+        <f>B6*(1+G2/100+H2/100)</f>
+        <v>1864704.9472634881</v>
+      </c>
+      <c r="D6" s="1">
+        <f>O2*0.9</f>
+        <v>236453.02686719998</v>
+      </c>
+      <c r="E6" s="1">
+        <f>D6*(1+G2/100+H2/100)</f>
+        <v>4407484.4208046077</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f>ROUND(B6/1000,2)&amp;"K"</f>
+        <v>100.04K</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f>ROUND(C6/1000/1000,2)&amp;"M"</f>
+        <v>1.86M</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>ROUND(D6/1000,2)&amp;"K"</f>
+        <v>236.45K</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f>ROUND(E6/1000/1000,2)&amp;"M"</f>
+        <v>4.41M</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <f>N3*0.9</f>
+        <v>100037.8190592</v>
+      </c>
+      <c r="C7" s="1">
+        <f>B7*(1+G3/100+H3/100)</f>
+        <v>1864704.9472634881</v>
+      </c>
+      <c r="D7" s="1">
+        <f>O3*0.9</f>
+        <v>236453.02686719998</v>
+      </c>
+      <c r="E7" s="1">
+        <f>D7*(1+G3/100+H3/100)</f>
+        <v>4407484.4208046077</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f>ROUND(B7/1000,2)&amp;"K"</f>
+        <v>100.04K</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>ROUND(C7/1000/1000,2)&amp;"M"</f>
+        <v>1.86M</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>ROUND(D7/1000,2)&amp;"K"</f>
+        <v>236.45K</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f>ROUND(E7/1000/1000,2)&amp;"M"</f>
+        <v>4.41M</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <f>N2*1</f>
+        <v>111153.13228799999</v>
+      </c>
+      <c r="C10" s="1">
+        <f>B10*(1+G2/100+H2/100)</f>
+        <v>2071894.3858483199</v>
+      </c>
+      <c r="D10" s="1">
+        <f>O2*1</f>
+        <v>262725.58540799998</v>
+      </c>
+      <c r="E10" s="1">
+        <f>D10*(1+G2/100+H2/100)</f>
+        <v>4897204.91200512</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f>ROUND(B10/1000,2)&amp;"K"</f>
+        <v>111.15K</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>ROUND(C10/1000/1000,2)&amp;"M"</f>
+        <v>2.07M</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>ROUND(D10/1000,2)&amp;"K"</f>
+        <v>262.73K</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f>ROUND(E10/1000/1000,2)&amp;"M"</f>
+        <v>4.9M</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <f>N3*1</f>
+        <v>111153.13228799999</v>
+      </c>
+      <c r="C11" s="1">
+        <f>B11*(1+G3/100+H3/100)</f>
+        <v>2071894.3858483199</v>
+      </c>
+      <c r="D11" s="1">
+        <f>O3*1</f>
+        <v>262725.58540799998</v>
+      </c>
+      <c r="E11" s="1">
+        <f>D11*(1+G2/100+H2/100)</f>
+        <v>4897204.91200512</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f>ROUND(B11/1000,2)&amp;"K"</f>
+        <v>111.15K</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>ROUND(C11/1000/1000,2)&amp;"M"</f>
+        <v>2.07M</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f>ROUND(D11/1000,2)&amp;"K"</f>
+        <v>262.73K</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f>ROUND(E11/1000/1000,2)&amp;"M"</f>
+        <v>4.9M</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <f>N2*1.1</f>
+        <v>122268.4455168</v>
+      </c>
+      <c r="C14" s="1">
+        <f>B14*(1+G2/100+H2/100)</f>
+        <v>2279083.8244331521</v>
+      </c>
+      <c r="D14" s="1">
+        <f>O2*1.1</f>
+        <v>288998.14394879999</v>
+      </c>
+      <c r="E14" s="1">
+        <f>D14*(1+G2/100+H2/100)</f>
+        <v>5386925.4032056322</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>ROUND(B14/1000,2)&amp;"K"</f>
+        <v>122.27K</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>ROUND(C14/1000/1000,2)&amp;"M"</f>
+        <v>2.28M</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>ROUND(D14/1000,2)&amp;"K"</f>
+        <v>289K</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f>ROUND(E14/1000/1000,2)&amp;"M"</f>
+        <v>5.39M</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <f>N3*1.1</f>
+        <v>122268.4455168</v>
+      </c>
+      <c r="C15" s="1">
+        <f>B15*(1+G2/100+H2/100)</f>
+        <v>2279083.8244331521</v>
+      </c>
+      <c r="D15" s="1">
+        <f>O3*1.1</f>
+        <v>288998.14394879999</v>
+      </c>
+      <c r="E15" s="1">
+        <f>D15*(1+G2/100+H2/100)</f>
+        <v>5386925.4032056322</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>ROUND(B15/1000,2)&amp;"K"</f>
+        <v>122.27K</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>ROUND(C15/1000/1000,2)&amp;"M"</f>
+        <v>2.28M</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>ROUND(D15/1000,2)&amp;"K"</f>
+        <v>289K</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f>ROUND(E15/1000/1000,2)&amp;"M"</f>
+        <v>5.39M</v>
       </c>
     </row>
   </sheetData>

--- a/驾考/枪伤计算.xlsx
+++ b/驾考/枪伤计算.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\jinx.articles\驾考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1628818B-E8D6-4B3E-93E1-4BF8CF83106D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAA38BF-C7A6-4D0C-A79A-18CF5C60845C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="24">
   <si>
     <t>战力</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>电系核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +474,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -580,19 +584,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>11688</v>
+        <v>12688</v>
       </c>
       <c r="C3" s="1">
         <v>1006</v>
       </c>
       <c r="D3" s="1">
-        <v>1095</v>
+        <v>1135</v>
       </c>
       <c r="E3" s="1">
         <v>187</v>
       </c>
       <c r="F3" s="1">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G3" s="1">
         <v>1692</v>
@@ -618,16 +622,16 @@
       </c>
       <c r="N3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100)</f>
-        <v>127994.51596799999</v>
+        <v>151421.02156799997</v>
       </c>
       <c r="O3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100+J3/100)</f>
-        <v>279566.96908800001</v>
+        <v>319666.601088</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
@@ -697,35 +701,35 @@
       </c>
       <c r="B7" s="1">
         <f>N3*0.9</f>
-        <v>115195.0643712</v>
+        <v>136278.91941119998</v>
       </c>
       <c r="C7" s="1">
         <f>B7*(1+G3/100+H3/100)</f>
-        <v>2147235.9998791679</v>
+        <v>2540239.0578247677</v>
       </c>
       <c r="D7" s="1">
         <f>O3*0.9</f>
-        <v>251610.27217920002</v>
+        <v>287699.94097920001</v>
       </c>
       <c r="E7" s="1">
         <f>D7*(1+G3/100+H3/100)</f>
-        <v>4690015.4734202884</v>
+        <v>5362726.899852288</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>ROUND(B7/1000,2)&amp;"K"</f>
-        <v>115.2K</v>
+        <v>136.28K</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>ROUND(C7/1000/1000,2)&amp;"M"</f>
-        <v>2.15M</v>
+        <v>2.54M</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>ROUND(D7/1000,2)&amp;"K"</f>
-        <v>251.61K</v>
+        <v>287.7K</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>ROUND(E7/1000/1000,2)&amp;"M"</f>
-        <v>4.69M</v>
+        <v>5.36M</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -800,35 +804,35 @@
       </c>
       <c r="B11" s="1">
         <f>N3*1</f>
-        <v>127994.51596799999</v>
+        <v>151421.02156799997</v>
       </c>
       <c r="C11" s="1">
         <f>B11*(1+G3/100+H3/100)</f>
-        <v>2385817.7776435199</v>
+        <v>2822487.8420275194</v>
       </c>
       <c r="D11" s="1">
         <f>O3*1</f>
-        <v>279566.96908800001</v>
+        <v>319666.601088</v>
       </c>
       <c r="E11" s="1">
         <f>D11*(1+G2/100+H2/100)</f>
-        <v>5211128.3038003203</v>
+        <v>5958585.4442803198</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>ROUND(B11/1000,2)&amp;"K"</f>
-        <v>127.99K</v>
+        <v>151.42K</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>ROUND(C11/1000/1000,2)&amp;"M"</f>
-        <v>2.39M</v>
+        <v>2.82M</v>
       </c>
       <c r="H11" s="1" t="str">
         <f>ROUND(D11/1000,2)&amp;"K"</f>
-        <v>279.57K</v>
+        <v>319.67K</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>ROUND(E11/1000/1000,2)&amp;"M"</f>
-        <v>5.21M</v>
+        <v>5.96M</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -903,35 +907,35 @@
       </c>
       <c r="B15" s="1">
         <f>N3*1.1</f>
-        <v>140793.9675648</v>
+        <v>166563.12372479998</v>
       </c>
       <c r="C15" s="1">
         <f>B15*(1+G2/100+H2/100)</f>
-        <v>2624399.555407872</v>
+        <v>3104736.6262302715</v>
       </c>
       <c r="D15" s="1">
         <f>O3*1.1</f>
-        <v>307523.66599680006</v>
+        <v>351633.26119680004</v>
       </c>
       <c r="E15" s="1">
         <f>D15*(1+G2/100+H2/100)</f>
-        <v>5732241.134180353</v>
+        <v>6554443.9887083527</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>ROUND(B15/1000,2)&amp;"K"</f>
-        <v>140.79K</v>
+        <v>166.56K</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>ROUND(C15/1000/1000,2)&amp;"M"</f>
-        <v>2.62M</v>
+        <v>3.1M</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>ROUND(D15/1000,2)&amp;"K"</f>
-        <v>307.52K</v>
+        <v>351.63K</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>ROUND(E15/1000/1000,2)&amp;"M"</f>
-        <v>5.73M</v>
+        <v>6.55M</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +949,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1102,7 +1106,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>

--- a/驾考/枪伤计算.xlsx
+++ b/驾考/枪伤计算.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\jinx.articles\驾考\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CUIT\Java\jinx.articles\驾考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAA38BF-C7A6-4D0C-A79A-18CF5C60845C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540680FA-1647-4C68-9AC7-39F167EE8171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物理子弹" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -474,17 +465,17 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -529,7 +520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -540,16 +531,16 @@
         <v>1006</v>
       </c>
       <c r="D2" s="1">
-        <v>1095</v>
+        <v>1170</v>
       </c>
       <c r="E2" s="1">
         <v>187</v>
       </c>
       <c r="F2" s="1">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G2" s="1">
-        <v>1692</v>
+        <v>1721</v>
       </c>
       <c r="H2" s="1">
         <v>72</v>
@@ -572,25 +563,25 @@
       </c>
       <c r="N2" s="1">
         <f>(B2+C2)*0.24*(1+D2/100+E2/100)*(1+F2/100+I2/100)</f>
-        <v>127994.51596799999</v>
+        <v>143818.348608</v>
       </c>
       <c r="O2" s="1">
         <f>(B2+C2)*0.24*(1+D2/100+E2/100)*(1+F2/100+I2/100+J2/100)</f>
-        <v>279566.96908800001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>303616.51372799999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>12688</v>
+        <v>11688</v>
       </c>
       <c r="C3" s="1">
         <v>1006</v>
       </c>
       <c r="D3" s="1">
-        <v>1135</v>
+        <v>1170</v>
       </c>
       <c r="E3" s="1">
         <v>187</v>
@@ -599,7 +590,7 @@
         <v>140</v>
       </c>
       <c r="G3" s="1">
-        <v>1692</v>
+        <v>1721</v>
       </c>
       <c r="H3" s="1">
         <v>72</v>
@@ -622,14 +613,14 @@
       </c>
       <c r="N3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100)</f>
-        <v>151421.02156799997</v>
+        <v>143818.348608</v>
       </c>
       <c r="O3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100+J3/100)</f>
-        <v>319666.601088</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>303616.51372799999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -658,81 +649,81 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1">
         <f>N2*0.9</f>
-        <v>115195.0643712</v>
+        <v>129436.51374720001</v>
       </c>
       <c r="C6" s="1">
         <f>B6*(1+G2/100+H2/100)</f>
-        <v>2147235.9998791679</v>
+        <v>2450233.2052344959</v>
       </c>
       <c r="D6" s="1">
         <f>O2*0.9</f>
-        <v>251610.27217920002</v>
+        <v>273254.86235519999</v>
       </c>
       <c r="E6" s="1">
         <f>D6*(1+G2/100+H2/100)</f>
-        <v>4690015.4734202884</v>
+        <v>5172714.5443839356</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>ROUND(B6/1000,2)&amp;"K"</f>
-        <v>115.2K</v>
+        <v>129.44K</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>ROUND(C6/1000/1000,2)&amp;"M"</f>
-        <v>2.15M</v>
+        <v>2.45M</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>ROUND(D6/1000,2)&amp;"K"</f>
-        <v>251.61K</v>
+        <v>273.25K</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>ROUND(E6/1000/1000,2)&amp;"M"</f>
-        <v>4.69M</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.17M</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <f>N3*0.9</f>
-        <v>136278.91941119998</v>
+        <v>129436.51374720001</v>
       </c>
       <c r="C7" s="1">
         <f>B7*(1+G3/100+H3/100)</f>
-        <v>2540239.0578247677</v>
+        <v>2450233.2052344959</v>
       </c>
       <c r="D7" s="1">
         <f>O3*0.9</f>
-        <v>287699.94097920001</v>
+        <v>273254.86235519999</v>
       </c>
       <c r="E7" s="1">
         <f>D7*(1+G3/100+H3/100)</f>
-        <v>5362726.899852288</v>
+        <v>5172714.5443839356</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>ROUND(B7/1000,2)&amp;"K"</f>
-        <v>136.28K</v>
+        <v>129.44K</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>ROUND(C7/1000/1000,2)&amp;"M"</f>
-        <v>2.54M</v>
+        <v>2.45M</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>ROUND(D7/1000,2)&amp;"K"</f>
-        <v>287.7K</v>
+        <v>273.25K</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>ROUND(E7/1000/1000,2)&amp;"M"</f>
-        <v>5.36M</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.17M</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -761,81 +752,81 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1">
         <f>N2*1</f>
-        <v>127994.51596799999</v>
+        <v>143818.348608</v>
       </c>
       <c r="C10" s="1">
         <f>B10*(1+G2/100+H2/100)</f>
-        <v>2385817.7776435199</v>
+        <v>2722481.3391494402</v>
       </c>
       <c r="D10" s="1">
         <f>O2*1</f>
-        <v>279566.96908800001</v>
+        <v>303616.51372799999</v>
       </c>
       <c r="E10" s="1">
         <f>D10*(1+G2/100+H2/100)</f>
-        <v>5211128.3038003203</v>
+        <v>5747460.6048710393</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>ROUND(B10/1000,2)&amp;"K"</f>
-        <v>127.99K</v>
+        <v>143.82K</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>ROUND(C10/1000/1000,2)&amp;"M"</f>
-        <v>2.39M</v>
+        <v>2.72M</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>ROUND(D10/1000,2)&amp;"K"</f>
-        <v>279.57K</v>
+        <v>303.62K</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>ROUND(E10/1000/1000,2)&amp;"M"</f>
-        <v>5.21M</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.75M</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1">
         <f>N3*1</f>
-        <v>151421.02156799997</v>
+        <v>143818.348608</v>
       </c>
       <c r="C11" s="1">
         <f>B11*(1+G3/100+H3/100)</f>
-        <v>2822487.8420275194</v>
+        <v>2722481.3391494402</v>
       </c>
       <c r="D11" s="1">
         <f>O3*1</f>
-        <v>319666.601088</v>
+        <v>303616.51372799999</v>
       </c>
       <c r="E11" s="1">
         <f>D11*(1+G2/100+H2/100)</f>
-        <v>5958585.4442803198</v>
+        <v>5747460.6048710393</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>ROUND(B11/1000,2)&amp;"K"</f>
-        <v>151.42K</v>
+        <v>143.82K</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>ROUND(C11/1000/1000,2)&amp;"M"</f>
-        <v>2.82M</v>
+        <v>2.72M</v>
       </c>
       <c r="H11" s="1" t="str">
         <f>ROUND(D11/1000,2)&amp;"K"</f>
-        <v>319.67K</v>
+        <v>303.62K</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>ROUND(E11/1000/1000,2)&amp;"M"</f>
-        <v>5.96M</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>5.75M</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -864,78 +855,78 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1">
         <f>N2*1.1</f>
-        <v>140793.9675648</v>
+        <v>158200.18346880001</v>
       </c>
       <c r="C14" s="1">
         <f>B14*(1+G2/100+H2/100)</f>
-        <v>2624399.555407872</v>
+        <v>2994729.473064384</v>
       </c>
       <c r="D14" s="1">
         <f>O2*1.1</f>
-        <v>307523.66599680006</v>
+        <v>333978.16510079999</v>
       </c>
       <c r="E14" s="1">
         <f>D14*(1+G2/100+H2/100)</f>
-        <v>5732241.134180353</v>
+        <v>6322206.6653581439</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>ROUND(B14/1000,2)&amp;"K"</f>
-        <v>140.79K</v>
+        <v>158.2K</v>
       </c>
       <c r="G14" s="1" t="str">
         <f>ROUND(C14/1000/1000,2)&amp;"M"</f>
-        <v>2.62M</v>
+        <v>2.99M</v>
       </c>
       <c r="H14" s="1" t="str">
         <f>ROUND(D14/1000,2)&amp;"K"</f>
-        <v>307.52K</v>
+        <v>333.98K</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>ROUND(E14/1000/1000,2)&amp;"M"</f>
-        <v>5.73M</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+        <v>6.32M</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1">
         <f>N3*1.1</f>
-        <v>166563.12372479998</v>
+        <v>158200.18346880001</v>
       </c>
       <c r="C15" s="1">
         <f>B15*(1+G2/100+H2/100)</f>
-        <v>3104736.6262302715</v>
+        <v>2994729.473064384</v>
       </c>
       <c r="D15" s="1">
         <f>O3*1.1</f>
-        <v>351633.26119680004</v>
+        <v>333978.16510079999</v>
       </c>
       <c r="E15" s="1">
         <f>D15*(1+G2/100+H2/100)</f>
-        <v>6554443.9887083527</v>
+        <v>6322206.6653581439</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>ROUND(B15/1000,2)&amp;"K"</f>
-        <v>166.56K</v>
+        <v>158.2K</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>ROUND(C15/1000/1000,2)&amp;"M"</f>
-        <v>3.1M</v>
+        <v>2.99M</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>ROUND(D15/1000,2)&amp;"K"</f>
-        <v>351.63K</v>
+        <v>333.98K</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>ROUND(E15/1000/1000,2)&amp;"M"</f>
-        <v>6.55M</v>
+        <v>6.32M</v>
       </c>
     </row>
   </sheetData>
@@ -952,14 +943,14 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1004,7 +995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1054,7 +1045,7 @@
         <v>262725.58540799998</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1104,7 +1095,7 @@
         <v>262725.58540799998</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1133,7 +1124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1170,7 +1161,7 @@
         <v>4.41M</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1207,7 +1198,7 @@
         <v>4.41M</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1236,7 +1227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1273,7 +1264,7 @@
         <v>4.9M</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1310,7 +1301,7 @@
         <v>4.9M</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1339,7 +1330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1376,7 +1367,7 @@
         <v>5.39M</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>

--- a/驾考/枪伤计算.xlsx
+++ b/驾考/枪伤计算.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CUIT\Java\jinx.articles\驾考\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\jinx.articles\驾考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540680FA-1647-4C68-9AC7-39F167EE8171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5270CD6A-0DE8-4CB9-BC4E-21C55735B6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物理子弹" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -465,17 +474,17 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -520,21 +529,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>11688</v>
+        <v>13366</v>
       </c>
       <c r="C2" s="1">
         <v>1006</v>
       </c>
       <c r="D2" s="1">
-        <v>1170</v>
+        <v>1220</v>
       </c>
       <c r="E2" s="1">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F2" s="1">
         <v>140</v>
@@ -563,19 +572,19 @@
       </c>
       <c r="N2" s="1">
         <f>(B2+C2)*0.24*(1+D2/100+E2/100)*(1+F2/100+I2/100)</f>
-        <v>143818.348608</v>
+        <v>168640.81804799999</v>
       </c>
       <c r="O2" s="1">
         <f>(B2+C2)*0.24*(1+D2/100+E2/100)*(1+F2/100+I2/100+J2/100)</f>
-        <v>303616.51372799999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+        <v>356019.50476799998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>11688</v>
+        <v>13366</v>
       </c>
       <c r="C3" s="1">
         <v>1006</v>
@@ -584,7 +593,7 @@
         <v>1170</v>
       </c>
       <c r="E3" s="1">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F3" s="1">
         <v>140</v>
@@ -613,14 +622,14 @@
       </c>
       <c r="N3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100)</f>
-        <v>143818.348608</v>
+        <v>163052.98444799997</v>
       </c>
       <c r="O3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100+J3/100)</f>
-        <v>303616.51372799999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+        <v>344222.967168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -649,81 +658,81 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1">
         <f>N2*0.9</f>
-        <v>129436.51374720001</v>
+        <v>151776.73624319999</v>
       </c>
       <c r="C6" s="1">
         <f>B6*(1+G2/100+H2/100)</f>
-        <v>2450233.2052344959</v>
+        <v>2873133.6170837758</v>
       </c>
       <c r="D6" s="1">
         <f>O2*0.9</f>
-        <v>273254.86235519999</v>
+        <v>320417.55429120001</v>
       </c>
       <c r="E6" s="1">
         <f>D6*(1+G2/100+H2/100)</f>
-        <v>5172714.5443839356</v>
+        <v>6065504.3027324164</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>ROUND(B6/1000,2)&amp;"K"</f>
-        <v>129.44K</v>
+        <v>151.78K</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>ROUND(C6/1000/1000,2)&amp;"M"</f>
-        <v>2.45M</v>
+        <v>2.87M</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>ROUND(D6/1000,2)&amp;"K"</f>
-        <v>273.25K</v>
+        <v>320.42K</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>ROUND(E6/1000/1000,2)&amp;"M"</f>
-        <v>5.17M</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+        <v>6.07M</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <f>N3*0.9</f>
-        <v>129436.51374720001</v>
+        <v>146747.68600319998</v>
       </c>
       <c r="C7" s="1">
         <f>B7*(1+G3/100+H3/100)</f>
-        <v>2450233.2052344959</v>
+        <v>2777933.6960405754</v>
       </c>
       <c r="D7" s="1">
         <f>O3*0.9</f>
-        <v>273254.86235519999</v>
+        <v>309800.67045119999</v>
       </c>
       <c r="E7" s="1">
         <f>D7*(1+G3/100+H3/100)</f>
-        <v>5172714.5443839356</v>
+        <v>5864526.6916412152</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>ROUND(B7/1000,2)&amp;"K"</f>
-        <v>129.44K</v>
+        <v>146.75K</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>ROUND(C7/1000/1000,2)&amp;"M"</f>
-        <v>2.45M</v>
+        <v>2.78M</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>ROUND(D7/1000,2)&amp;"K"</f>
-        <v>273.25K</v>
+        <v>309.8K</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>ROUND(E7/1000/1000,2)&amp;"M"</f>
-        <v>5.17M</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+        <v>5.86M</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -752,81 +761,81 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1">
         <f>N2*1</f>
-        <v>143818.348608</v>
+        <v>168640.81804799999</v>
       </c>
       <c r="C10" s="1">
         <f>B10*(1+G2/100+H2/100)</f>
-        <v>2722481.3391494402</v>
+        <v>3192370.6856486397</v>
       </c>
       <c r="D10" s="1">
         <f>O2*1</f>
-        <v>303616.51372799999</v>
+        <v>356019.50476799998</v>
       </c>
       <c r="E10" s="1">
         <f>D10*(1+G2/100+H2/100)</f>
-        <v>5747460.6048710393</v>
+        <v>6739449.2252582395</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>ROUND(B10/1000,2)&amp;"K"</f>
-        <v>143.82K</v>
+        <v>168.64K</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>ROUND(C10/1000/1000,2)&amp;"M"</f>
-        <v>2.72M</v>
+        <v>3.19M</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>ROUND(D10/1000,2)&amp;"K"</f>
-        <v>303.62K</v>
+        <v>356.02K</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>ROUND(E10/1000/1000,2)&amp;"M"</f>
-        <v>5.75M</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+        <v>6.74M</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1">
         <f>N3*1</f>
-        <v>143818.348608</v>
+        <v>163052.98444799997</v>
       </c>
       <c r="C11" s="1">
         <f>B11*(1+G3/100+H3/100)</f>
-        <v>2722481.3391494402</v>
+        <v>3086592.9956006394</v>
       </c>
       <c r="D11" s="1">
         <f>O3*1</f>
-        <v>303616.51372799999</v>
+        <v>344222.967168</v>
       </c>
       <c r="E11" s="1">
         <f>D11*(1+G2/100+H2/100)</f>
-        <v>5747460.6048710393</v>
+        <v>6516140.76849024</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>ROUND(B11/1000,2)&amp;"K"</f>
-        <v>143.82K</v>
+        <v>163.05K</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>ROUND(C11/1000/1000,2)&amp;"M"</f>
-        <v>2.72M</v>
+        <v>3.09M</v>
       </c>
       <c r="H11" s="1" t="str">
         <f>ROUND(D11/1000,2)&amp;"K"</f>
-        <v>303.62K</v>
+        <v>344.22K</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>ROUND(E11/1000/1000,2)&amp;"M"</f>
-        <v>5.75M</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+        <v>6.52M</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -855,78 +864,78 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1">
         <f>N2*1.1</f>
-        <v>158200.18346880001</v>
+        <v>185504.89985280001</v>
       </c>
       <c r="C14" s="1">
         <f>B14*(1+G2/100+H2/100)</f>
-        <v>2994729.473064384</v>
+        <v>3511607.754213504</v>
       </c>
       <c r="D14" s="1">
         <f>O2*1.1</f>
-        <v>333978.16510079999</v>
+        <v>391621.45524480002</v>
       </c>
       <c r="E14" s="1">
         <f>D14*(1+G2/100+H2/100)</f>
-        <v>6322206.6653581439</v>
+        <v>7413394.1477840645</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>ROUND(B14/1000,2)&amp;"K"</f>
-        <v>158.2K</v>
+        <v>185.5K</v>
       </c>
       <c r="G14" s="1" t="str">
         <f>ROUND(C14/1000/1000,2)&amp;"M"</f>
-        <v>2.99M</v>
+        <v>3.51M</v>
       </c>
       <c r="H14" s="1" t="str">
         <f>ROUND(D14/1000,2)&amp;"K"</f>
-        <v>333.98K</v>
+        <v>391.62K</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>ROUND(E14/1000/1000,2)&amp;"M"</f>
-        <v>6.32M</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+        <v>7.41M</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1">
         <f>N3*1.1</f>
-        <v>158200.18346880001</v>
+        <v>179358.28289279999</v>
       </c>
       <c r="C15" s="1">
         <f>B15*(1+G2/100+H2/100)</f>
-        <v>2994729.473064384</v>
+        <v>3395252.2951607038</v>
       </c>
       <c r="D15" s="1">
         <f>O3*1.1</f>
-        <v>333978.16510079999</v>
+        <v>378645.26388480002</v>
       </c>
       <c r="E15" s="1">
         <f>D15*(1+G2/100+H2/100)</f>
-        <v>6322206.6653581439</v>
+        <v>7167754.8453392647</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>ROUND(B15/1000,2)&amp;"K"</f>
-        <v>158.2K</v>
+        <v>179.36K</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>ROUND(C15/1000/1000,2)&amp;"M"</f>
-        <v>2.99M</v>
+        <v>3.4M</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>ROUND(D15/1000,2)&amp;"K"</f>
-        <v>333.98K</v>
+        <v>378.65K</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>ROUND(E15/1000/1000,2)&amp;"M"</f>
-        <v>6.32M</v>
+        <v>7.17M</v>
       </c>
     </row>
   </sheetData>
@@ -940,17 +949,17 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -995,29 +1004,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>11688</v>
+        <f>物理子弹!B2</f>
+        <v>13366</v>
       </c>
       <c r="C2" s="1">
+        <f>物理子弹!C2</f>
         <v>1006</v>
       </c>
       <c r="D2" s="1">
-        <v>1095</v>
+        <f>物理子弹!D2</f>
+        <v>1220</v>
       </c>
       <c r="E2" s="1">
-        <v>187</v>
+        <f>物理子弹!E2</f>
+        <v>189</v>
       </c>
       <c r="F2" s="1">
         <v>80</v>
       </c>
       <c r="G2" s="1">
-        <v>1692</v>
+        <f>物理子弹!G2</f>
+        <v>1721</v>
       </c>
       <c r="H2" s="1">
+        <f>物理子弹!H2</f>
         <v>72</v>
       </c>
       <c r="I2" s="1">
@@ -1025,49 +1040,59 @@
         <v>84</v>
       </c>
       <c r="J2" s="1">
+        <f>物理子弹!J2</f>
         <v>360</v>
       </c>
       <c r="K2" s="1">
+        <f>物理子弹!K2</f>
         <v>36</v>
       </c>
       <c r="L2" s="1">
+        <f>物理子弹!L2</f>
         <v>30</v>
       </c>
       <c r="M2" s="1">
+        <f>物理子弹!M2</f>
         <v>18</v>
       </c>
       <c r="N2" s="1">
         <f>(B2+C2)*0.24*(1+D2/100+E2/100)*(1+F2/100+I2/100)</f>
-        <v>111153.13228799999</v>
+        <v>137411.03692799999</v>
       </c>
       <c r="O2" s="1">
         <f>(B2+C2)*0.24*(1+D2/100+E2/100)*(1+F2/100+I2/100+J2/100)</f>
-        <v>262725.58540799998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+        <v>324789.72364799998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>11688</v>
+        <f>物理子弹!B3</f>
+        <v>13366</v>
       </c>
       <c r="C3" s="1">
+        <f>物理子弹!C3</f>
         <v>1006</v>
       </c>
       <c r="D3" s="1">
-        <v>1095</v>
+        <f>物理子弹!D3</f>
+        <v>1170</v>
       </c>
       <c r="E3" s="1">
-        <v>187</v>
+        <f>物理子弹!E3</f>
+        <v>189</v>
       </c>
       <c r="F3" s="1">
         <v>80</v>
       </c>
       <c r="G3" s="1">
-        <v>1692</v>
+        <f>物理子弹!G3</f>
+        <v>1721</v>
       </c>
       <c r="H3" s="1">
+        <f>物理子弹!H3</f>
         <v>72</v>
       </c>
       <c r="I3" s="1">
@@ -1075,27 +1100,31 @@
         <v>84</v>
       </c>
       <c r="J3" s="1">
+        <f>物理子弹!J3</f>
         <v>360</v>
       </c>
       <c r="K3" s="1">
+        <f>物理子弹!K3</f>
         <v>36</v>
       </c>
       <c r="L3" s="1">
+        <f>物理子弹!L3</f>
         <v>30</v>
       </c>
       <c r="M3" s="1">
+        <f>物理子弹!M3</f>
         <v>18</v>
       </c>
       <c r="N3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100)</f>
-        <v>111153.13228799999</v>
+        <v>132857.98732799999</v>
       </c>
       <c r="O3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100+J3/100)</f>
-        <v>262725.58540799998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+        <v>314027.97004799999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1124,81 +1153,81 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1">
         <f>N2*0.9</f>
-        <v>100037.8190592</v>
+        <v>123669.93323519999</v>
       </c>
       <c r="C6" s="1">
         <f>B6*(1+G2/100+H2/100)</f>
-        <v>1864704.9472634881</v>
+        <v>2341071.836142336</v>
       </c>
       <c r="D6" s="1">
         <f>O2*0.9</f>
-        <v>236453.02686719998</v>
+        <v>292310.75128319999</v>
       </c>
       <c r="E6" s="1">
         <f>D6*(1+G2/100+H2/100)</f>
-        <v>4407484.4208046077</v>
+        <v>5533442.5217909757</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>ROUND(B6/1000,2)&amp;"K"</f>
-        <v>100.04K</v>
+        <v>123.67K</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>ROUND(C6/1000/1000,2)&amp;"M"</f>
-        <v>1.86M</v>
+        <v>2.34M</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>ROUND(D6/1000,2)&amp;"K"</f>
-        <v>236.45K</v>
+        <v>292.31K</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>ROUND(E6/1000/1000,2)&amp;"M"</f>
-        <v>4.41M</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+        <v>5.53M</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1">
         <f>N3*0.9</f>
-        <v>100037.8190592</v>
+        <v>119572.18859519999</v>
       </c>
       <c r="C7" s="1">
         <f>B7*(1+G3/100+H3/100)</f>
-        <v>1864704.9472634881</v>
+        <v>2263501.5301071359</v>
       </c>
       <c r="D7" s="1">
         <f>O3*0.9</f>
-        <v>236453.02686719998</v>
+        <v>282625.17304319999</v>
       </c>
       <c r="E7" s="1">
         <f>D7*(1+G3/100+H3/100)</f>
-        <v>4407484.4208046077</v>
+        <v>5350094.5257077757</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>ROUND(B7/1000,2)&amp;"K"</f>
-        <v>100.04K</v>
+        <v>119.57K</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>ROUND(C7/1000/1000,2)&amp;"M"</f>
-        <v>1.86M</v>
+        <v>2.26M</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>ROUND(D7/1000,2)&amp;"K"</f>
-        <v>236.45K</v>
+        <v>282.63K</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>ROUND(E7/1000/1000,2)&amp;"M"</f>
-        <v>4.41M</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+        <v>5.35M</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1227,81 +1256,81 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1">
         <f>N2*1</f>
-        <v>111153.13228799999</v>
+        <v>137411.03692799999</v>
       </c>
       <c r="C10" s="1">
         <f>B10*(1+G2/100+H2/100)</f>
-        <v>2071894.3858483199</v>
+        <v>2601190.9290470397</v>
       </c>
       <c r="D10" s="1">
         <f>O2*1</f>
-        <v>262725.58540799998</v>
+        <v>324789.72364799998</v>
       </c>
       <c r="E10" s="1">
         <f>D10*(1+G2/100+H2/100)</f>
-        <v>4897204.91200512</v>
+        <v>6148269.4686566396</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>ROUND(B10/1000,2)&amp;"K"</f>
-        <v>111.15K</v>
+        <v>137.41K</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>ROUND(C10/1000/1000,2)&amp;"M"</f>
-        <v>2.07M</v>
+        <v>2.6M</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>ROUND(D10/1000,2)&amp;"K"</f>
-        <v>262.73K</v>
+        <v>324.79K</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>ROUND(E10/1000/1000,2)&amp;"M"</f>
-        <v>4.9M</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+        <v>6.15M</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1">
         <f>N3*1</f>
-        <v>111153.13228799999</v>
+        <v>132857.98732799999</v>
       </c>
       <c r="C11" s="1">
         <f>B11*(1+G3/100+H3/100)</f>
-        <v>2071894.3858483199</v>
+        <v>2515001.7001190395</v>
       </c>
       <c r="D11" s="1">
         <f>O3*1</f>
-        <v>262725.58540799998</v>
+        <v>314027.97004799999</v>
       </c>
       <c r="E11" s="1">
         <f>D11*(1+G2/100+H2/100)</f>
-        <v>4897204.91200512</v>
+        <v>5944549.4730086401</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>ROUND(B11/1000,2)&amp;"K"</f>
-        <v>111.15K</v>
+        <v>132.86K</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>ROUND(C11/1000/1000,2)&amp;"M"</f>
-        <v>2.07M</v>
+        <v>2.52M</v>
       </c>
       <c r="H11" s="1" t="str">
         <f>ROUND(D11/1000,2)&amp;"K"</f>
-        <v>262.73K</v>
+        <v>314.03K</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>ROUND(E11/1000/1000,2)&amp;"M"</f>
-        <v>4.9M</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+        <v>5.94M</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -1330,78 +1359,78 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1">
         <f>N2*1.1</f>
-        <v>122268.4455168</v>
+        <v>151152.1406208</v>
       </c>
       <c r="C14" s="1">
         <f>B14*(1+G2/100+H2/100)</f>
-        <v>2279083.8244331521</v>
+        <v>2861310.0219517439</v>
       </c>
       <c r="D14" s="1">
         <f>O2*1.1</f>
-        <v>288998.14394879999</v>
+        <v>357268.69601280004</v>
       </c>
       <c r="E14" s="1">
         <f>D14*(1+G2/100+H2/100)</f>
-        <v>5386925.4032056322</v>
+        <v>6763096.4155223044</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>ROUND(B14/1000,2)&amp;"K"</f>
-        <v>122.27K</v>
+        <v>151.15K</v>
       </c>
       <c r="G14" s="1" t="str">
         <f>ROUND(C14/1000/1000,2)&amp;"M"</f>
-        <v>2.28M</v>
+        <v>2.86M</v>
       </c>
       <c r="H14" s="1" t="str">
         <f>ROUND(D14/1000,2)&amp;"K"</f>
-        <v>289K</v>
+        <v>357.27K</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>ROUND(E14/1000/1000,2)&amp;"M"</f>
-        <v>5.39M</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+        <v>6.76M</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1">
         <f>N3*1.1</f>
-        <v>122268.4455168</v>
+        <v>146143.78606079999</v>
       </c>
       <c r="C15" s="1">
         <f>B15*(1+G2/100+H2/100)</f>
-        <v>2279083.8244331521</v>
+        <v>2766501.8701309436</v>
       </c>
       <c r="D15" s="1">
         <f>O3*1.1</f>
-        <v>288998.14394879999</v>
+        <v>345430.76705279999</v>
       </c>
       <c r="E15" s="1">
         <f>D15*(1+G2/100+H2/100)</f>
-        <v>5386925.4032056322</v>
+        <v>6539004.4203095036</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>ROUND(B15/1000,2)&amp;"K"</f>
-        <v>122.27K</v>
+        <v>146.14K</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>ROUND(C15/1000/1000,2)&amp;"M"</f>
-        <v>2.28M</v>
+        <v>2.77M</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>ROUND(D15/1000,2)&amp;"K"</f>
-        <v>289K</v>
+        <v>345.43K</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>ROUND(E15/1000/1000,2)&amp;"M"</f>
-        <v>5.39M</v>
+        <v>6.54M</v>
       </c>
     </row>
   </sheetData>

--- a/驾考/枪伤计算.xlsx
+++ b/驾考/枪伤计算.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\jinx.articles\驾考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5270CD6A-0DE8-4CB9-BC4E-21C55735B6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784E2E07-9DA2-424E-9864-81785A03B3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3315" yWindow="2250" windowWidth="20970" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物理子弹" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,22 +534,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>13366</v>
+        <v>13498</v>
       </c>
       <c r="C2" s="1">
         <v>1006</v>
       </c>
       <c r="D2" s="1">
-        <v>1220</v>
+        <v>1380</v>
       </c>
       <c r="E2" s="1">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F2" s="1">
         <v>140</v>
       </c>
       <c r="G2" s="1">
-        <v>1721</v>
+        <v>1792</v>
       </c>
       <c r="H2" s="1">
         <v>72</v>
@@ -572,11 +572,11 @@
       </c>
       <c r="N2" s="1">
         <f>(B2+C2)*0.24*(1+D2/100+E2/100)*(1+F2/100+I2/100)</f>
-        <v>168640.81804799999</v>
+        <v>188460.566784</v>
       </c>
       <c r="O2" s="1">
         <f>(B2+C2)*0.24*(1+D2/100+E2/100)*(1+F2/100+I2/100+J2/100)</f>
-        <v>356019.50476799998</v>
+        <v>397861.19654400006</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -584,22 +584,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>13366</v>
+        <v>16000</v>
       </c>
       <c r="C3" s="1">
         <v>1006</v>
       </c>
       <c r="D3" s="1">
-        <v>1170</v>
+        <v>2000</v>
       </c>
       <c r="E3" s="1">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F3" s="1">
         <v>140</v>
       </c>
       <c r="G3" s="1">
-        <v>1721</v>
+        <v>2000</v>
       </c>
       <c r="H3" s="1">
         <v>72</v>
@@ -622,11 +622,11 @@
       </c>
       <c r="N3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100)</f>
-        <v>163052.98444799997</v>
+        <v>302958.76089599996</v>
       </c>
       <c r="O3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100+J3/100)</f>
-        <v>344222.967168</v>
+        <v>639579.60633600003</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -664,35 +664,35 @@
       </c>
       <c r="B6" s="1">
         <f>N2*0.9</f>
-        <v>151776.73624319999</v>
+        <v>169614.5101056</v>
       </c>
       <c r="C6" s="1">
         <f>B6*(1+G2/100+H2/100)</f>
-        <v>2873133.6170837758</v>
+        <v>3331228.9784739842</v>
       </c>
       <c r="D6" s="1">
         <f>O2*0.9</f>
-        <v>320417.55429120001</v>
+        <v>358075.07688960008</v>
       </c>
       <c r="E6" s="1">
         <f>D6*(1+G2/100+H2/100)</f>
-        <v>6065504.3027324164</v>
+        <v>7032594.5101117454</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>ROUND(B6/1000,2)&amp;"K"</f>
-        <v>151.78K</v>
+        <v>169.61K</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>ROUND(C6/1000/1000,2)&amp;"M"</f>
-        <v>2.87M</v>
+        <v>3.33M</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>ROUND(D6/1000,2)&amp;"K"</f>
-        <v>320.42K</v>
+        <v>358.08K</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>ROUND(E6/1000/1000,2)&amp;"M"</f>
-        <v>6.07M</v>
+        <v>7.03M</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -701,35 +701,35 @@
       </c>
       <c r="B7" s="1">
         <f>N3*0.9</f>
-        <v>146747.68600319998</v>
+        <v>272662.88480639999</v>
       </c>
       <c r="C7" s="1">
         <f>B7*(1+G3/100+H3/100)</f>
-        <v>2777933.6960405754</v>
+        <v>5922237.8579950072</v>
       </c>
       <c r="D7" s="1">
         <f>O3*0.9</f>
-        <v>309800.67045119999</v>
+        <v>575621.64570240001</v>
       </c>
       <c r="E7" s="1">
         <f>D7*(1+G3/100+H3/100)</f>
-        <v>5864526.6916412152</v>
+        <v>12502502.144656127</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>ROUND(B7/1000,2)&amp;"K"</f>
-        <v>146.75K</v>
+        <v>272.66K</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>ROUND(C7/1000/1000,2)&amp;"M"</f>
-        <v>2.78M</v>
+        <v>5.92M</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>ROUND(D7/1000,2)&amp;"K"</f>
-        <v>309.8K</v>
+        <v>575.62K</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>ROUND(E7/1000/1000,2)&amp;"M"</f>
-        <v>5.86M</v>
+        <v>12.5M</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -767,35 +767,35 @@
       </c>
       <c r="B10" s="1">
         <f>N2*1</f>
-        <v>168640.81804799999</v>
+        <v>188460.566784</v>
       </c>
       <c r="C10" s="1">
         <f>B10*(1+G2/100+H2/100)</f>
-        <v>3192370.6856486397</v>
+        <v>3701365.5316377599</v>
       </c>
       <c r="D10" s="1">
         <f>O2*1</f>
-        <v>356019.50476799998</v>
+        <v>397861.19654400006</v>
       </c>
       <c r="E10" s="1">
         <f>D10*(1+G2/100+H2/100)</f>
-        <v>6739449.2252582395</v>
+        <v>7813993.9001241615</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>ROUND(B10/1000,2)&amp;"K"</f>
-        <v>168.64K</v>
+        <v>188.46K</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>ROUND(C10/1000/1000,2)&amp;"M"</f>
-        <v>3.19M</v>
+        <v>3.7M</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>ROUND(D10/1000,2)&amp;"K"</f>
-        <v>356.02K</v>
+        <v>397.86K</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>ROUND(E10/1000/1000,2)&amp;"M"</f>
-        <v>6.74M</v>
+        <v>7.81M</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -804,35 +804,35 @@
       </c>
       <c r="B11" s="1">
         <f>N3*1</f>
-        <v>163052.98444799997</v>
+        <v>302958.76089599996</v>
       </c>
       <c r="C11" s="1">
         <f>B11*(1+G3/100+H3/100)</f>
-        <v>3086592.9956006394</v>
+        <v>6580264.2866611192</v>
       </c>
       <c r="D11" s="1">
         <f>O3*1</f>
-        <v>344222.967168</v>
+        <v>639579.60633600003</v>
       </c>
       <c r="E11" s="1">
         <f>D11*(1+G2/100+H2/100)</f>
-        <v>6516140.76849024</v>
+        <v>12561343.468439041</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>ROUND(B11/1000,2)&amp;"K"</f>
-        <v>163.05K</v>
+        <v>302.96K</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>ROUND(C11/1000/1000,2)&amp;"M"</f>
-        <v>3.09M</v>
+        <v>6.58M</v>
       </c>
       <c r="H11" s="1" t="str">
         <f>ROUND(D11/1000,2)&amp;"K"</f>
-        <v>344.22K</v>
+        <v>639.58K</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>ROUND(E11/1000/1000,2)&amp;"M"</f>
-        <v>6.52M</v>
+        <v>12.56M</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -870,35 +870,35 @@
       </c>
       <c r="B14" s="1">
         <f>N2*1.1</f>
-        <v>185504.89985280001</v>
+        <v>207306.62346240002</v>
       </c>
       <c r="C14" s="1">
         <f>B14*(1+G2/100+H2/100)</f>
-        <v>3511607.754213504</v>
+        <v>4071502.0848015365</v>
       </c>
       <c r="D14" s="1">
         <f>O2*1.1</f>
-        <v>391621.45524480002</v>
+        <v>437647.31619840011</v>
       </c>
       <c r="E14" s="1">
         <f>D14*(1+G2/100+H2/100)</f>
-        <v>7413394.1477840645</v>
+        <v>8595393.2901365776</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>ROUND(B14/1000,2)&amp;"K"</f>
-        <v>185.5K</v>
+        <v>207.31K</v>
       </c>
       <c r="G14" s="1" t="str">
         <f>ROUND(C14/1000/1000,2)&amp;"M"</f>
-        <v>3.51M</v>
+        <v>4.07M</v>
       </c>
       <c r="H14" s="1" t="str">
         <f>ROUND(D14/1000,2)&amp;"K"</f>
-        <v>391.62K</v>
+        <v>437.65K</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>ROUND(E14/1000/1000,2)&amp;"M"</f>
-        <v>7.41M</v>
+        <v>8.6M</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -907,40 +907,41 @@
       </c>
       <c r="B15" s="1">
         <f>N3*1.1</f>
-        <v>179358.28289279999</v>
+        <v>333254.63698559999</v>
       </c>
       <c r="C15" s="1">
         <f>B15*(1+G2/100+H2/100)</f>
-        <v>3395252.2951607038</v>
+        <v>6545121.0703971842</v>
       </c>
       <c r="D15" s="1">
         <f>O3*1.1</f>
-        <v>378645.26388480002</v>
+        <v>703537.56696960004</v>
       </c>
       <c r="E15" s="1">
         <f>D15*(1+G2/100+H2/100)</f>
-        <v>7167754.8453392647</v>
+        <v>13817477.815282945</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>ROUND(B15/1000,2)&amp;"K"</f>
-        <v>179.36K</v>
+        <v>333.25K</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>ROUND(C15/1000/1000,2)&amp;"M"</f>
-        <v>3.4M</v>
+        <v>6.55M</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>ROUND(D15/1000,2)&amp;"K"</f>
-        <v>378.65K</v>
+        <v>703.54K</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>ROUND(E15/1000/1000,2)&amp;"M"</f>
-        <v>7.17M</v>
+        <v>13.82M</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1010,7 +1011,7 @@
       </c>
       <c r="B2" s="1">
         <f>物理子弹!B2</f>
-        <v>13366</v>
+        <v>13498</v>
       </c>
       <c r="C2" s="1">
         <f>物理子弹!C2</f>
@@ -1018,18 +1019,18 @@
       </c>
       <c r="D2" s="1">
         <f>物理子弹!D2</f>
-        <v>1220</v>
+        <v>1380</v>
       </c>
       <c r="E2" s="1">
         <f>物理子弹!E2</f>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F2" s="1">
         <v>80</v>
       </c>
       <c r="G2" s="1">
         <f>物理子弹!G2</f>
-        <v>1721</v>
+        <v>1792</v>
       </c>
       <c r="H2" s="1">
         <f>物理子弹!H2</f>
@@ -1057,11 +1058,11 @@
       </c>
       <c r="N2" s="1">
         <f>(B2+C2)*0.24*(1+D2/100+E2/100)*(1+F2/100+I2/100)</f>
-        <v>137411.03692799999</v>
+        <v>153560.46182400003</v>
       </c>
       <c r="O2" s="1">
         <f>(B2+C2)*0.24*(1+D2/100+E2/100)*(1+F2/100+I2/100+J2/100)</f>
-        <v>324789.72364799998</v>
+        <v>362961.09158400004</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1070,7 +1071,7 @@
       </c>
       <c r="B3" s="1">
         <f>物理子弹!B3</f>
-        <v>13366</v>
+        <v>16000</v>
       </c>
       <c r="C3" s="1">
         <f>物理子弹!C3</f>
@@ -1078,18 +1079,18 @@
       </c>
       <c r="D3" s="1">
         <f>物理子弹!D3</f>
-        <v>1170</v>
+        <v>2000</v>
       </c>
       <c r="E3" s="1">
         <f>物理子弹!E3</f>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F3" s="1">
         <v>80</v>
       </c>
       <c r="G3" s="1">
         <f>物理子弹!G3</f>
-        <v>1721</v>
+        <v>2000</v>
       </c>
       <c r="H3" s="1">
         <f>物理子弹!H3</f>
@@ -1117,11 +1118,11 @@
       </c>
       <c r="N3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100)</f>
-        <v>132857.98732799999</v>
+        <v>246855.28665600001</v>
       </c>
       <c r="O3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100+J3/100)</f>
-        <v>314027.97004799999</v>
+        <v>583476.13209600002</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1159,35 +1160,35 @@
       </c>
       <c r="B6" s="1">
         <f>N2*0.9</f>
-        <v>123669.93323519999</v>
+        <v>138204.41564160003</v>
       </c>
       <c r="C6" s="1">
         <f>B6*(1+G2/100+H2/100)</f>
-        <v>2341071.836142336</v>
+        <v>2714334.7232010248</v>
       </c>
       <c r="D6" s="1">
         <f>O2*0.9</f>
-        <v>292310.75128319999</v>
+        <v>326664.98242560006</v>
       </c>
       <c r="E6" s="1">
         <f>D6*(1+G2/100+H2/100)</f>
-        <v>5533442.5217909757</v>
+        <v>6415700.2548387852</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>ROUND(B6/1000,2)&amp;"K"</f>
-        <v>123.67K</v>
+        <v>138.2K</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>ROUND(C6/1000/1000,2)&amp;"M"</f>
-        <v>2.34M</v>
+        <v>2.71M</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>ROUND(D6/1000,2)&amp;"K"</f>
-        <v>292.31K</v>
+        <v>326.66K</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>ROUND(E6/1000/1000,2)&amp;"M"</f>
-        <v>5.53M</v>
+        <v>6.42M</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1196,35 +1197,35 @@
       </c>
       <c r="B7" s="1">
         <f>N3*0.9</f>
-        <v>119572.18859519999</v>
+        <v>222169.75799040002</v>
       </c>
       <c r="C7" s="1">
         <f>B7*(1+G3/100+H3/100)</f>
-        <v>2263501.5301071359</v>
+        <v>4825527.1435514884</v>
       </c>
       <c r="D7" s="1">
         <f>O3*0.9</f>
-        <v>282625.17304319999</v>
+        <v>525128.51888640004</v>
       </c>
       <c r="E7" s="1">
         <f>D7*(1+G3/100+H3/100)</f>
-        <v>5350094.5257077757</v>
+        <v>11405791.430212608</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>ROUND(B7/1000,2)&amp;"K"</f>
-        <v>119.57K</v>
+        <v>222.17K</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>ROUND(C7/1000/1000,2)&amp;"M"</f>
-        <v>2.26M</v>
+        <v>4.83M</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>ROUND(D7/1000,2)&amp;"K"</f>
-        <v>282.63K</v>
+        <v>525.13K</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>ROUND(E7/1000/1000,2)&amp;"M"</f>
-        <v>5.35M</v>
+        <v>11.41M</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1262,35 +1263,35 @@
       </c>
       <c r="B10" s="1">
         <f>N2*1</f>
-        <v>137411.03692799999</v>
+        <v>153560.46182400003</v>
       </c>
       <c r="C10" s="1">
         <f>B10*(1+G2/100+H2/100)</f>
-        <v>2601190.9290470397</v>
+        <v>3015927.4702233607</v>
       </c>
       <c r="D10" s="1">
         <f>O2*1</f>
-        <v>324789.72364799998</v>
+        <v>362961.09158400004</v>
       </c>
       <c r="E10" s="1">
         <f>D10*(1+G2/100+H2/100)</f>
-        <v>6148269.4686566396</v>
+        <v>7128555.8387097614</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>ROUND(B10/1000,2)&amp;"K"</f>
-        <v>137.41K</v>
+        <v>153.56K</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>ROUND(C10/1000/1000,2)&amp;"M"</f>
-        <v>2.6M</v>
+        <v>3.02M</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>ROUND(D10/1000,2)&amp;"K"</f>
-        <v>324.79K</v>
+        <v>362.96K</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>ROUND(E10/1000/1000,2)&amp;"M"</f>
-        <v>6.15M</v>
+        <v>7.13M</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1299,35 +1300,35 @@
       </c>
       <c r="B11" s="1">
         <f>N3*1</f>
-        <v>132857.98732799999</v>
+        <v>246855.28665600001</v>
       </c>
       <c r="C11" s="1">
         <f>B11*(1+G3/100+H3/100)</f>
-        <v>2515001.7001190395</v>
+        <v>5361696.8261683201</v>
       </c>
       <c r="D11" s="1">
         <f>O3*1</f>
-        <v>314027.97004799999</v>
+        <v>583476.13209600002</v>
       </c>
       <c r="E11" s="1">
         <f>D11*(1+G2/100+H2/100)</f>
-        <v>5944549.4730086401</v>
+        <v>11459471.234365441</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>ROUND(B11/1000,2)&amp;"K"</f>
-        <v>132.86K</v>
+        <v>246.86K</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>ROUND(C11/1000/1000,2)&amp;"M"</f>
-        <v>2.52M</v>
+        <v>5.36M</v>
       </c>
       <c r="H11" s="1" t="str">
         <f>ROUND(D11/1000,2)&amp;"K"</f>
-        <v>314.03K</v>
+        <v>583.48K</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>ROUND(E11/1000/1000,2)&amp;"M"</f>
-        <v>5.94M</v>
+        <v>11.46M</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1365,35 +1366,35 @@
       </c>
       <c r="B14" s="1">
         <f>N2*1.1</f>
-        <v>151152.1406208</v>
+        <v>168916.50800640005</v>
       </c>
       <c r="C14" s="1">
         <f>B14*(1+G2/100+H2/100)</f>
-        <v>2861310.0219517439</v>
+        <v>3317520.217245697</v>
       </c>
       <c r="D14" s="1">
         <f>O2*1.1</f>
-        <v>357268.69601280004</v>
+        <v>399257.20074240008</v>
       </c>
       <c r="E14" s="1">
         <f>D14*(1+G2/100+H2/100)</f>
-        <v>6763096.4155223044</v>
+        <v>7841411.4225807376</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>ROUND(B14/1000,2)&amp;"K"</f>
-        <v>151.15K</v>
+        <v>168.92K</v>
       </c>
       <c r="G14" s="1" t="str">
         <f>ROUND(C14/1000/1000,2)&amp;"M"</f>
-        <v>2.86M</v>
+        <v>3.32M</v>
       </c>
       <c r="H14" s="1" t="str">
         <f>ROUND(D14/1000,2)&amp;"K"</f>
-        <v>357.27K</v>
+        <v>399.26K</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>ROUND(E14/1000/1000,2)&amp;"M"</f>
-        <v>6.76M</v>
+        <v>7.84M</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1402,35 +1403,35 @@
       </c>
       <c r="B15" s="1">
         <f>N3*1.1</f>
-        <v>146143.78606079999</v>
+        <v>271540.81532160001</v>
       </c>
       <c r="C15" s="1">
         <f>B15*(1+G2/100+H2/100)</f>
-        <v>2766501.8701309436</v>
+        <v>5333061.6129162246</v>
       </c>
       <c r="D15" s="1">
         <f>O3*1.1</f>
-        <v>345430.76705279999</v>
+        <v>641823.74530560011</v>
       </c>
       <c r="E15" s="1">
         <f>D15*(1+G2/100+H2/100)</f>
-        <v>6539004.4203095036</v>
+        <v>12605418.357801987</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>ROUND(B15/1000,2)&amp;"K"</f>
-        <v>146.14K</v>
+        <v>271.54K</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>ROUND(C15/1000/1000,2)&amp;"M"</f>
-        <v>2.77M</v>
+        <v>5.33M</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>ROUND(D15/1000,2)&amp;"K"</f>
-        <v>345.43K</v>
+        <v>641.82K</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>ROUND(E15/1000/1000,2)&amp;"M"</f>
-        <v>6.54M</v>
+        <v>12.61M</v>
       </c>
     </row>
   </sheetData>

--- a/驾考/枪伤计算.xlsx
+++ b/驾考/枪伤计算.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\jinx.articles\驾考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784E2E07-9DA2-424E-9864-81785A03B3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5B9278-1DD9-422E-86D1-ECF234F8793F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="2250" windowWidth="20970" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6690" yWindow="660" windowWidth="20970" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物理子弹" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,29 +534,29 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>13498</v>
+        <v>15514</v>
       </c>
       <c r="C2" s="1">
-        <v>1006</v>
+        <v>1411</v>
       </c>
       <c r="D2" s="1">
-        <v>1380</v>
+        <v>1440</v>
       </c>
       <c r="E2" s="1">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F2" s="1">
         <v>140</v>
       </c>
       <c r="G2" s="1">
-        <v>1792</v>
+        <v>1821</v>
       </c>
       <c r="H2" s="1">
         <v>72</v>
       </c>
       <c r="I2" s="1">
         <f>K2+L2+M2</f>
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="J2" s="1">
         <v>360</v>
@@ -565,18 +565,18 @@
         <v>36</v>
       </c>
       <c r="L2" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
         <v>18</v>
       </c>
       <c r="N2" s="1">
         <f>(B2+C2)*0.24*(1+D2/100+E2/100)*(1+F2/100+I2/100)</f>
-        <v>188460.566784</v>
+        <v>207079.13519999999</v>
       </c>
       <c r="O2" s="1">
         <f>(B2+C2)*0.24*(1+D2/100+E2/100)*(1+F2/100+I2/100+J2/100)</f>
-        <v>397861.19654400006</v>
+        <v>460645.42320000002</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -584,16 +584,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="C3" s="1">
-        <v>1006</v>
+        <v>1411</v>
       </c>
       <c r="D3" s="1">
         <v>2000</v>
       </c>
       <c r="E3" s="1">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F3" s="1">
         <v>140</v>
@@ -606,7 +606,7 @@
       </c>
       <c r="I3" s="1">
         <f>K3+L3+M3</f>
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="J3" s="1">
         <v>360</v>
@@ -615,18 +615,18 @@
         <v>36</v>
       </c>
       <c r="L3" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M3" s="1">
         <v>18</v>
       </c>
       <c r="N3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100)</f>
-        <v>302958.76089599996</v>
+        <v>346568.38070400001</v>
       </c>
       <c r="O3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100+J3/100)</f>
-        <v>639579.60633600003</v>
+        <v>770937.82646400004</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -664,35 +664,35 @@
       </c>
       <c r="B6" s="1">
         <f>N2*0.9</f>
-        <v>169614.5101056</v>
+        <v>186371.22167999999</v>
       </c>
       <c r="C6" s="1">
         <f>B6*(1+G2/100+H2/100)</f>
-        <v>3331228.9784739842</v>
+        <v>3714378.4480823996</v>
       </c>
       <c r="D6" s="1">
         <f>O2*0.9</f>
-        <v>358075.07688960008</v>
+        <v>414580.88088000001</v>
       </c>
       <c r="E6" s="1">
         <f>D6*(1+G2/100+H2/100)</f>
-        <v>7032594.5101117454</v>
+        <v>8262596.9559383998</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>ROUND(B6/1000,2)&amp;"K"</f>
-        <v>169.61K</v>
+        <v>186.37K</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>ROUND(C6/1000/1000,2)&amp;"M"</f>
-        <v>3.33M</v>
+        <v>3.71M</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>ROUND(D6/1000,2)&amp;"K"</f>
-        <v>358.08K</v>
+        <v>414.58K</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>ROUND(E6/1000/1000,2)&amp;"M"</f>
-        <v>7.03M</v>
+        <v>8.26M</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -701,35 +701,35 @@
       </c>
       <c r="B7" s="1">
         <f>N3*0.9</f>
-        <v>272662.88480639999</v>
+        <v>311911.54263360001</v>
       </c>
       <c r="C7" s="1">
         <f>B7*(1+G3/100+H3/100)</f>
-        <v>5922237.8579950072</v>
+        <v>6774718.7060017921</v>
       </c>
       <c r="D7" s="1">
         <f>O3*0.9</f>
-        <v>575621.64570240001</v>
+        <v>693844.0438176</v>
       </c>
       <c r="E7" s="1">
         <f>D7*(1+G3/100+H3/100)</f>
-        <v>12502502.144656127</v>
+        <v>15070292.63171827</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>ROUND(B7/1000,2)&amp;"K"</f>
-        <v>272.66K</v>
+        <v>311.91K</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>ROUND(C7/1000/1000,2)&amp;"M"</f>
-        <v>5.92M</v>
+        <v>6.77M</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>ROUND(D7/1000,2)&amp;"K"</f>
-        <v>575.62K</v>
+        <v>693.84K</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>ROUND(E7/1000/1000,2)&amp;"M"</f>
-        <v>12.5M</v>
+        <v>15.07M</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -767,35 +767,35 @@
       </c>
       <c r="B10" s="1">
         <f>N2*1</f>
-        <v>188460.566784</v>
+        <v>207079.13519999999</v>
       </c>
       <c r="C10" s="1">
         <f>B10*(1+G2/100+H2/100)</f>
-        <v>3701365.5316377599</v>
+        <v>4127087.1645359998</v>
       </c>
       <c r="D10" s="1">
         <f>O2*1</f>
-        <v>397861.19654400006</v>
+        <v>460645.42320000002</v>
       </c>
       <c r="E10" s="1">
         <f>D10*(1+G2/100+H2/100)</f>
-        <v>7813993.9001241615</v>
+        <v>9180663.284376001</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>ROUND(B10/1000,2)&amp;"K"</f>
-        <v>188.46K</v>
+        <v>207.08K</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>ROUND(C10/1000/1000,2)&amp;"M"</f>
-        <v>3.7M</v>
+        <v>4.13M</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>ROUND(D10/1000,2)&amp;"K"</f>
-        <v>397.86K</v>
+        <v>460.65K</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>ROUND(E10/1000/1000,2)&amp;"M"</f>
-        <v>7.81M</v>
+        <v>9.18M</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -804,35 +804,35 @@
       </c>
       <c r="B11" s="1">
         <f>N3*1</f>
-        <v>302958.76089599996</v>
+        <v>346568.38070400001</v>
       </c>
       <c r="C11" s="1">
         <f>B11*(1+G3/100+H3/100)</f>
-        <v>6580264.2866611192</v>
+        <v>7527465.22889088</v>
       </c>
       <c r="D11" s="1">
         <f>O3*1</f>
-        <v>639579.60633600003</v>
+        <v>770937.82646400004</v>
       </c>
       <c r="E11" s="1">
         <f>D11*(1+G2/100+H2/100)</f>
-        <v>12561343.468439041</v>
+        <v>15364790.881427521</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>ROUND(B11/1000,2)&amp;"K"</f>
-        <v>302.96K</v>
+        <v>346.57K</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>ROUND(C11/1000/1000,2)&amp;"M"</f>
-        <v>6.58M</v>
+        <v>7.53M</v>
       </c>
       <c r="H11" s="1" t="str">
         <f>ROUND(D11/1000,2)&amp;"K"</f>
-        <v>639.58K</v>
+        <v>770.94K</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>ROUND(E11/1000/1000,2)&amp;"M"</f>
-        <v>12.56M</v>
+        <v>15.36M</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -870,35 +870,35 @@
       </c>
       <c r="B14" s="1">
         <f>N2*1.1</f>
-        <v>207306.62346240002</v>
+        <v>227787.04872000002</v>
       </c>
       <c r="C14" s="1">
         <f>B14*(1+G2/100+H2/100)</f>
-        <v>4071502.0848015365</v>
+        <v>4539795.8809896</v>
       </c>
       <c r="D14" s="1">
         <f>O2*1.1</f>
-        <v>437647.31619840011</v>
+        <v>506709.96552000009</v>
       </c>
       <c r="E14" s="1">
         <f>D14*(1+G2/100+H2/100)</f>
-        <v>8595393.2901365776</v>
+        <v>10098729.612813601</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>ROUND(B14/1000,2)&amp;"K"</f>
-        <v>207.31K</v>
+        <v>227.79K</v>
       </c>
       <c r="G14" s="1" t="str">
         <f>ROUND(C14/1000/1000,2)&amp;"M"</f>
-        <v>4.07M</v>
+        <v>4.54M</v>
       </c>
       <c r="H14" s="1" t="str">
         <f>ROUND(D14/1000,2)&amp;"K"</f>
-        <v>437.65K</v>
+        <v>506.71K</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>ROUND(E14/1000/1000,2)&amp;"M"</f>
-        <v>8.6M</v>
+        <v>10.1M</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -907,35 +907,35 @@
       </c>
       <c r="B15" s="1">
         <f>N3*1.1</f>
-        <v>333254.63698559999</v>
+        <v>381225.21877440007</v>
       </c>
       <c r="C15" s="1">
         <f>B15*(1+G2/100+H2/100)</f>
-        <v>6545121.0703971842</v>
+        <v>7597818.6101737935</v>
       </c>
       <c r="D15" s="1">
         <f>O3*1.1</f>
-        <v>703537.56696960004</v>
+        <v>848031.60911040008</v>
       </c>
       <c r="E15" s="1">
         <f>D15*(1+G2/100+H2/100)</f>
-        <v>13817477.815282945</v>
+        <v>16901269.969570272</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>ROUND(B15/1000,2)&amp;"K"</f>
-        <v>333.25K</v>
+        <v>381.23K</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>ROUND(C15/1000/1000,2)&amp;"M"</f>
-        <v>6.55M</v>
+        <v>7.6M</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>ROUND(D15/1000,2)&amp;"K"</f>
-        <v>703.54K</v>
+        <v>848.03K</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>ROUND(E15/1000/1000,2)&amp;"M"</f>
-        <v>13.82M</v>
+        <v>16.9M</v>
       </c>
     </row>
   </sheetData>
@@ -950,7 +950,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1011,26 +1011,26 @@
       </c>
       <c r="B2" s="1">
         <f>物理子弹!B2</f>
-        <v>13498</v>
+        <v>15514</v>
       </c>
       <c r="C2" s="1">
         <f>物理子弹!C2</f>
-        <v>1006</v>
+        <v>1411</v>
       </c>
       <c r="D2" s="1">
         <f>物理子弹!D2</f>
-        <v>1380</v>
+        <v>1440</v>
       </c>
       <c r="E2" s="1">
         <f>物理子弹!E2</f>
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F2" s="1">
         <v>80</v>
       </c>
       <c r="G2" s="1">
         <f>物理子弹!G2</f>
-        <v>1792</v>
+        <v>1821</v>
       </c>
       <c r="H2" s="1">
         <f>物理子弹!H2</f>
@@ -1038,7 +1038,7 @@
       </c>
       <c r="I2" s="1">
         <f>K2+L2+M2</f>
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="J2" s="1">
         <f>物理子弹!J2</f>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="L2" s="1">
         <f>物理子弹!L2</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
         <f>物理子弹!M2</f>
@@ -1058,11 +1058,11 @@
       </c>
       <c r="N2" s="1">
         <f>(B2+C2)*0.24*(1+D2/100+E2/100)*(1+F2/100+I2/100)</f>
-        <v>153560.46182400003</v>
+        <v>164818.08719999998</v>
       </c>
       <c r="O2" s="1">
         <f>(B2+C2)*0.24*(1+D2/100+E2/100)*(1+F2/100+I2/100+J2/100)</f>
-        <v>362961.09158400004</v>
+        <v>418384.37519999995</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1071,11 +1071,11 @@
       </c>
       <c r="B3" s="1">
         <f>物理子弹!B3</f>
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="C3" s="1">
         <f>物理子弹!C3</f>
-        <v>1006</v>
+        <v>1411</v>
       </c>
       <c r="D3" s="1">
         <f>物理子弹!D3</f>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="E3" s="1">
         <f>物理子弹!E3</f>
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F3" s="1">
         <v>80</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="I3" s="1">
         <f>K3+L3+M3</f>
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="J3" s="1">
         <f>物理子弹!J3</f>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="L3" s="1">
         <f>物理子弹!L3</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M3" s="1">
         <f>物理子弹!M3</f>
@@ -1118,11 +1118,11 @@
       </c>
       <c r="N3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100)</f>
-        <v>246855.28665600001</v>
+        <v>275840.13974399999</v>
       </c>
       <c r="O3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100+J3/100)</f>
-        <v>583476.13209600002</v>
+        <v>700209.58550399996</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1160,35 +1160,35 @@
       </c>
       <c r="B6" s="1">
         <f>N2*0.9</f>
-        <v>138204.41564160003</v>
+        <v>148336.27847999998</v>
       </c>
       <c r="C6" s="1">
         <f>B6*(1+G2/100+H2/100)</f>
-        <v>2714334.7232010248</v>
+        <v>2956342.0301063997</v>
       </c>
       <c r="D6" s="1">
         <f>O2*0.9</f>
-        <v>326664.98242560006</v>
+        <v>376545.93767999997</v>
       </c>
       <c r="E6" s="1">
         <f>D6*(1+G2/100+H2/100)</f>
-        <v>6415700.2548387852</v>
+        <v>7504560.5379623994</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>ROUND(B6/1000,2)&amp;"K"</f>
-        <v>138.2K</v>
+        <v>148.34K</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>ROUND(C6/1000/1000,2)&amp;"M"</f>
-        <v>2.71M</v>
+        <v>2.96M</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>ROUND(D6/1000,2)&amp;"K"</f>
-        <v>326.66K</v>
+        <v>376.55K</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>ROUND(E6/1000/1000,2)&amp;"M"</f>
-        <v>6.42M</v>
+        <v>7.5M</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1197,35 +1197,35 @@
       </c>
       <c r="B7" s="1">
         <f>N3*0.9</f>
-        <v>222169.75799040002</v>
+        <v>248256.12576959998</v>
       </c>
       <c r="C7" s="1">
         <f>B7*(1+G3/100+H3/100)</f>
-        <v>4825527.1435514884</v>
+        <v>5392123.0517157111</v>
       </c>
       <c r="D7" s="1">
         <f>O3*0.9</f>
-        <v>525128.51888640004</v>
+        <v>630188.62695359997</v>
       </c>
       <c r="E7" s="1">
         <f>D7*(1+G3/100+H3/100)</f>
-        <v>11405791.430212608</v>
+        <v>13687696.977432191</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>ROUND(B7/1000,2)&amp;"K"</f>
-        <v>222.17K</v>
+        <v>248.26K</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>ROUND(C7/1000/1000,2)&amp;"M"</f>
-        <v>4.83M</v>
+        <v>5.39M</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>ROUND(D7/1000,2)&amp;"K"</f>
-        <v>525.13K</v>
+        <v>630.19K</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>ROUND(E7/1000/1000,2)&amp;"M"</f>
-        <v>11.41M</v>
+        <v>13.69M</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1263,35 +1263,35 @@
       </c>
       <c r="B10" s="1">
         <f>N2*1</f>
-        <v>153560.46182400003</v>
+        <v>164818.08719999998</v>
       </c>
       <c r="C10" s="1">
         <f>B10*(1+G2/100+H2/100)</f>
-        <v>3015927.4702233607</v>
+        <v>3284824.4778959993</v>
       </c>
       <c r="D10" s="1">
         <f>O2*1</f>
-        <v>362961.09158400004</v>
+        <v>418384.37519999995</v>
       </c>
       <c r="E10" s="1">
         <f>D10*(1+G2/100+H2/100)</f>
-        <v>7128555.8387097614</v>
+        <v>8338400.5977359992</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>ROUND(B10/1000,2)&amp;"K"</f>
-        <v>153.56K</v>
+        <v>164.82K</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>ROUND(C10/1000/1000,2)&amp;"M"</f>
-        <v>3.02M</v>
+        <v>3.28M</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>ROUND(D10/1000,2)&amp;"K"</f>
-        <v>362.96K</v>
+        <v>418.38K</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>ROUND(E10/1000/1000,2)&amp;"M"</f>
-        <v>7.13M</v>
+        <v>8.34M</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1300,35 +1300,35 @@
       </c>
       <c r="B11" s="1">
         <f>N3*1</f>
-        <v>246855.28665600001</v>
+        <v>275840.13974399999</v>
       </c>
       <c r="C11" s="1">
         <f>B11*(1+G3/100+H3/100)</f>
-        <v>5361696.8261683201</v>
+        <v>5991247.8352396796</v>
       </c>
       <c r="D11" s="1">
         <f>O3*1</f>
-        <v>583476.13209600002</v>
+        <v>700209.58550399996</v>
       </c>
       <c r="E11" s="1">
         <f>D11*(1+G2/100+H2/100)</f>
-        <v>11459471.234365441</v>
+        <v>13955177.039094718</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>ROUND(B11/1000,2)&amp;"K"</f>
-        <v>246.86K</v>
+        <v>275.84K</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>ROUND(C11/1000/1000,2)&amp;"M"</f>
-        <v>5.36M</v>
+        <v>5.99M</v>
       </c>
       <c r="H11" s="1" t="str">
         <f>ROUND(D11/1000,2)&amp;"K"</f>
-        <v>583.48K</v>
+        <v>700.21K</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>ROUND(E11/1000/1000,2)&amp;"M"</f>
-        <v>11.46M</v>
+        <v>13.96M</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1366,35 +1366,35 @@
       </c>
       <c r="B14" s="1">
         <f>N2*1.1</f>
-        <v>168916.50800640005</v>
+        <v>181299.89591999998</v>
       </c>
       <c r="C14" s="1">
         <f>B14*(1+G2/100+H2/100)</f>
-        <v>3317520.217245697</v>
+        <v>3613306.9256855994</v>
       </c>
       <c r="D14" s="1">
         <f>O2*1.1</f>
-        <v>399257.20074240008</v>
+        <v>460222.81271999999</v>
       </c>
       <c r="E14" s="1">
         <f>D14*(1+G2/100+H2/100)</f>
-        <v>7841411.4225807376</v>
+        <v>9172240.6575095989</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>ROUND(B14/1000,2)&amp;"K"</f>
-        <v>168.92K</v>
+        <v>181.3K</v>
       </c>
       <c r="G14" s="1" t="str">
         <f>ROUND(C14/1000/1000,2)&amp;"M"</f>
-        <v>3.32M</v>
+        <v>3.61M</v>
       </c>
       <c r="H14" s="1" t="str">
         <f>ROUND(D14/1000,2)&amp;"K"</f>
-        <v>399.26K</v>
+        <v>460.22K</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>ROUND(E14/1000/1000,2)&amp;"M"</f>
-        <v>7.84M</v>
+        <v>9.17M</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1403,35 +1403,35 @@
       </c>
       <c r="B15" s="1">
         <f>N3*1.1</f>
-        <v>271540.81532160001</v>
+        <v>303424.15371839999</v>
       </c>
       <c r="C15" s="1">
         <f>B15*(1+G2/100+H2/100)</f>
-        <v>5333061.6129162246</v>
+        <v>6047243.3836077116</v>
       </c>
       <c r="D15" s="1">
         <f>O3*1.1</f>
-        <v>641823.74530560011</v>
+        <v>770230.54405440006</v>
       </c>
       <c r="E15" s="1">
         <f>D15*(1+G2/100+H2/100)</f>
-        <v>12605418.357801987</v>
+        <v>15350694.743004194</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>ROUND(B15/1000,2)&amp;"K"</f>
-        <v>271.54K</v>
+        <v>303.42K</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>ROUND(C15/1000/1000,2)&amp;"M"</f>
-        <v>5.33M</v>
+        <v>6.05M</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>ROUND(D15/1000,2)&amp;"K"</f>
-        <v>641.82K</v>
+        <v>770.23K</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>ROUND(E15/1000/1000,2)&amp;"M"</f>
-        <v>12.61M</v>
+        <v>15.35M</v>
       </c>
     </row>
   </sheetData>

--- a/驾考/枪伤计算.xlsx
+++ b/驾考/枪伤计算.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\jinx.articles\驾考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5B9278-1DD9-422E-86D1-ECF234F8793F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC98D386-0C49-45AD-B3EE-FB64EC143BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="660" windowWidth="20970" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物理子弹" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,22 +534,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>15514</v>
+        <v>15536</v>
       </c>
       <c r="C2" s="1">
         <v>1411</v>
       </c>
       <c r="D2" s="1">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="E2" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F2" s="1">
         <v>140</v>
       </c>
       <c r="G2" s="1">
-        <v>1821</v>
+        <v>1850</v>
       </c>
       <c r="H2" s="1">
         <v>72</v>
@@ -572,11 +572,11 @@
       </c>
       <c r="N2" s="1">
         <f>(B2+C2)*0.24*(1+D2/100+E2/100)*(1+F2/100+I2/100)</f>
-        <v>207079.13519999999</v>
+        <v>212251.0068</v>
       </c>
       <c r="O2" s="1">
         <f>(B2+C2)*0.24*(1+D2/100+E2/100)*(1+F2/100+I2/100+J2/100)</f>
-        <v>460645.42320000002</v>
+        <v>472150.19880000001</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -593,7 +593,7 @@
         <v>2000</v>
       </c>
       <c r="E3" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F3" s="1">
         <v>140</v>
@@ -622,11 +622,11 @@
       </c>
       <c r="N3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100)</f>
-        <v>346568.38070400001</v>
+        <v>346719.45671999996</v>
       </c>
       <c r="O3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100+J3/100)</f>
-        <v>770937.82646400004</v>
+        <v>771273.89351999993</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -664,35 +664,35 @@
       </c>
       <c r="B6" s="1">
         <f>N2*0.9</f>
-        <v>186371.22167999999</v>
+        <v>191025.90612</v>
       </c>
       <c r="C6" s="1">
         <f>B6*(1+G2/100+H2/100)</f>
-        <v>3714378.4480823996</v>
+        <v>3862543.8217463996</v>
       </c>
       <c r="D6" s="1">
         <f>O2*0.9</f>
-        <v>414580.88088000001</v>
+        <v>424935.17892000003</v>
       </c>
       <c r="E6" s="1">
         <f>D6*(1+G2/100+H2/100)</f>
-        <v>8262596.9559383998</v>
+        <v>8592189.317762401</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>ROUND(B6/1000,2)&amp;"K"</f>
-        <v>186.37K</v>
+        <v>191.03K</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>ROUND(C6/1000/1000,2)&amp;"M"</f>
-        <v>3.71M</v>
+        <v>3.86M</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>ROUND(D6/1000,2)&amp;"K"</f>
-        <v>414.58K</v>
+        <v>424.94K</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>ROUND(E6/1000/1000,2)&amp;"M"</f>
-        <v>8.26M</v>
+        <v>8.59M</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -701,35 +701,35 @@
       </c>
       <c r="B7" s="1">
         <f>N3*0.9</f>
-        <v>311911.54263360001</v>
+        <v>312047.51104799996</v>
       </c>
       <c r="C7" s="1">
         <f>B7*(1+G3/100+H3/100)</f>
-        <v>6774718.7060017921</v>
+        <v>6777671.9399625584</v>
       </c>
       <c r="D7" s="1">
         <f>O3*0.9</f>
-        <v>693844.0438176</v>
+        <v>694146.50416799996</v>
       </c>
       <c r="E7" s="1">
         <f>D7*(1+G3/100+H3/100)</f>
-        <v>15070292.63171827</v>
+        <v>15076862.070528958</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>ROUND(B7/1000,2)&amp;"K"</f>
-        <v>311.91K</v>
+        <v>312.05K</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>ROUND(C7/1000/1000,2)&amp;"M"</f>
-        <v>6.77M</v>
+        <v>6.78M</v>
       </c>
       <c r="H7" s="1" t="str">
         <f>ROUND(D7/1000,2)&amp;"K"</f>
-        <v>693.84K</v>
+        <v>694.15K</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>ROUND(E7/1000/1000,2)&amp;"M"</f>
-        <v>15.07M</v>
+        <v>15.08M</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -767,35 +767,35 @@
       </c>
       <c r="B10" s="1">
         <f>N2*1</f>
-        <v>207079.13519999999</v>
+        <v>212251.0068</v>
       </c>
       <c r="C10" s="1">
         <f>B10*(1+G2/100+H2/100)</f>
-        <v>4127087.1645359998</v>
+        <v>4291715.3574959999</v>
       </c>
       <c r="D10" s="1">
         <f>O2*1</f>
-        <v>460645.42320000002</v>
+        <v>472150.19880000001</v>
       </c>
       <c r="E10" s="1">
         <f>D10*(1+G2/100+H2/100)</f>
-        <v>9180663.284376001</v>
+        <v>9546877.0197359994</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>ROUND(B10/1000,2)&amp;"K"</f>
-        <v>207.08K</v>
+        <v>212.25K</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>ROUND(C10/1000/1000,2)&amp;"M"</f>
-        <v>4.13M</v>
+        <v>4.29M</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>ROUND(D10/1000,2)&amp;"K"</f>
-        <v>460.65K</v>
+        <v>472.15K</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>ROUND(E10/1000/1000,2)&amp;"M"</f>
-        <v>9.18M</v>
+        <v>9.55M</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -804,23 +804,23 @@
       </c>
       <c r="B11" s="1">
         <f>N3*1</f>
-        <v>346568.38070400001</v>
+        <v>346719.45671999996</v>
       </c>
       <c r="C11" s="1">
         <f>B11*(1+G3/100+H3/100)</f>
-        <v>7527465.22889088</v>
+        <v>7530746.5999583984</v>
       </c>
       <c r="D11" s="1">
         <f>O3*1</f>
-        <v>770937.82646400004</v>
+        <v>771273.89351999993</v>
       </c>
       <c r="E11" s="1">
         <f>D11*(1+G2/100+H2/100)</f>
-        <v>15364790.881427521</v>
+        <v>15595158.126974398</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>ROUND(B11/1000,2)&amp;"K"</f>
-        <v>346.57K</v>
+        <v>346.72K</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>ROUND(C11/1000/1000,2)&amp;"M"</f>
@@ -828,11 +828,11 @@
       </c>
       <c r="H11" s="1" t="str">
         <f>ROUND(D11/1000,2)&amp;"K"</f>
-        <v>770.94K</v>
+        <v>771.27K</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>ROUND(E11/1000/1000,2)&amp;"M"</f>
-        <v>15.36M</v>
+        <v>15.6M</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -870,35 +870,35 @@
       </c>
       <c r="B14" s="1">
         <f>N2*1.1</f>
-        <v>227787.04872000002</v>
+        <v>233476.10748000004</v>
       </c>
       <c r="C14" s="1">
         <f>B14*(1+G2/100+H2/100)</f>
-        <v>4539795.8809896</v>
+        <v>4720886.8932456002</v>
       </c>
       <c r="D14" s="1">
         <f>O2*1.1</f>
-        <v>506709.96552000009</v>
+        <v>519365.21868000005</v>
       </c>
       <c r="E14" s="1">
         <f>D14*(1+G2/100+H2/100)</f>
-        <v>10098729.612813601</v>
+        <v>10501564.7217096</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>ROUND(B14/1000,2)&amp;"K"</f>
-        <v>227.79K</v>
+        <v>233.48K</v>
       </c>
       <c r="G14" s="1" t="str">
         <f>ROUND(C14/1000/1000,2)&amp;"M"</f>
-        <v>4.54M</v>
+        <v>4.72M</v>
       </c>
       <c r="H14" s="1" t="str">
         <f>ROUND(D14/1000,2)&amp;"K"</f>
-        <v>506.71K</v>
+        <v>519.37K</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>ROUND(E14/1000/1000,2)&amp;"M"</f>
-        <v>10.1M</v>
+        <v>10.5M</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -907,35 +907,35 @@
       </c>
       <c r="B15" s="1">
         <f>N3*1.1</f>
-        <v>381225.21877440007</v>
+        <v>381391.40239199996</v>
       </c>
       <c r="C15" s="1">
         <f>B15*(1+G2/100+H2/100)</f>
-        <v>7597818.6101737935</v>
+        <v>7711734.1563662384</v>
       </c>
       <c r="D15" s="1">
         <f>O3*1.1</f>
-        <v>848031.60911040008</v>
+        <v>848401.28287200001</v>
       </c>
       <c r="E15" s="1">
         <f>D15*(1+G2/100+H2/100)</f>
-        <v>16901269.969570272</v>
+        <v>17154673.939671841</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>ROUND(B15/1000,2)&amp;"K"</f>
-        <v>381.23K</v>
+        <v>381.39K</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>ROUND(C15/1000/1000,2)&amp;"M"</f>
-        <v>7.6M</v>
+        <v>7.71M</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>ROUND(D15/1000,2)&amp;"K"</f>
-        <v>848.03K</v>
+        <v>848.4K</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>ROUND(E15/1000/1000,2)&amp;"M"</f>
-        <v>16.9M</v>
+        <v>17.15M</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B2" s="1">
         <f>物理子弹!B2</f>
-        <v>15514</v>
+        <v>15536</v>
       </c>
       <c r="C2" s="1">
         <f>物理子弹!C2</f>
@@ -1019,18 +1019,18 @@
       </c>
       <c r="D2" s="1">
         <f>物理子弹!D2</f>
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="E2" s="1">
         <f>物理子弹!E2</f>
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F2" s="1">
         <v>80</v>
       </c>
       <c r="G2" s="1">
         <f>物理子弹!G2</f>
-        <v>1821</v>
+        <v>1850</v>
       </c>
       <c r="H2" s="1">
         <f>物理子弹!H2</f>
@@ -1058,11 +1058,11 @@
       </c>
       <c r="N2" s="1">
         <f>(B2+C2)*0.24*(1+D2/100+E2/100)*(1+F2/100+I2/100)</f>
-        <v>164818.08719999998</v>
+        <v>168934.4748</v>
       </c>
       <c r="O2" s="1">
         <f>(B2+C2)*0.24*(1+D2/100+E2/100)*(1+F2/100+I2/100+J2/100)</f>
-        <v>418384.37519999995</v>
+        <v>428833.66679999995</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="E3" s="1">
         <f>物理子弹!E3</f>
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F3" s="1">
         <v>80</v>
@@ -1118,11 +1118,11 @@
       </c>
       <c r="N3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100)</f>
-        <v>275840.13974399999</v>
+        <v>275960.38391999993</v>
       </c>
       <c r="O3" s="1">
         <f>(B3+C3)*0.24*(1+D3/100+E3/100)*(1+F3/100+I3/100+J3/100)</f>
-        <v>700209.58550399996</v>
+        <v>700514.82071999984</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1160,35 +1160,35 @@
       </c>
       <c r="B6" s="1">
         <f>N2*0.9</f>
-        <v>148336.27847999998</v>
+        <v>152041.02731999999</v>
       </c>
       <c r="C6" s="1">
         <f>B6*(1+G2/100+H2/100)</f>
-        <v>2956342.0301063997</v>
+        <v>3074269.5724103996</v>
       </c>
       <c r="D6" s="1">
         <f>O2*0.9</f>
-        <v>376545.93767999997</v>
+        <v>385950.30011999997</v>
       </c>
       <c r="E6" s="1">
         <f>D6*(1+G2/100+H2/100)</f>
-        <v>7504560.5379623994</v>
+        <v>7803915.0684263986</v>
       </c>
       <c r="F6" s="1" t="str">
         <f>ROUND(B6/1000,2)&amp;"K"</f>
-        <v>148.34K</v>
+        <v>152.04K</v>
       </c>
       <c r="G6" s="1" t="str">
         <f>ROUND(C6/1000/1000,2)&amp;"M"</f>
-        <v>2.96M</v>
+        <v>3.07M</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>ROUND(D6/1000,2)&amp;"K"</f>
-        <v>376.55K</v>
+        <v>385.95K</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>ROUND(E6/1000/1000,2)&amp;"M"</f>
-        <v>7.5M</v>
+        <v>7.8M</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1197,23 +1197,23 @@
       </c>
       <c r="B7" s="1">
         <f>N3*0.9</f>
-        <v>248256.12576959998</v>
+        <v>248364.34552799995</v>
       </c>
       <c r="C7" s="1">
         <f>B7*(1+G3/100+H3/100)</f>
-        <v>5392123.0517157111</v>
+        <v>5394473.5848681582</v>
       </c>
       <c r="D7" s="1">
         <f>O3*0.9</f>
-        <v>630188.62695359997</v>
+        <v>630463.33864799992</v>
       </c>
       <c r="E7" s="1">
         <f>D7*(1+G3/100+H3/100)</f>
-        <v>13687696.977432191</v>
+        <v>13693663.715434557</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>ROUND(B7/1000,2)&amp;"K"</f>
-        <v>248.26K</v>
+        <v>248.36K</v>
       </c>
       <c r="G7" s="1" t="str">
         <f>ROUND(C7/1000/1000,2)&amp;"M"</f>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="H7" s="1" t="str">
         <f>ROUND(D7/1000,2)&amp;"K"</f>
-        <v>630.19K</v>
+        <v>630.46K</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>ROUND(E7/1000/1000,2)&amp;"M"</f>
@@ -1263,35 +1263,35 @@
       </c>
       <c r="B10" s="1">
         <f>N2*1</f>
-        <v>164818.08719999998</v>
+        <v>168934.4748</v>
       </c>
       <c r="C10" s="1">
         <f>B10*(1+G2/100+H2/100)</f>
-        <v>3284824.4778959993</v>
+        <v>3415855.0804559998</v>
       </c>
       <c r="D10" s="1">
         <f>O2*1</f>
-        <v>418384.37519999995</v>
+        <v>428833.66679999995</v>
       </c>
       <c r="E10" s="1">
         <f>D10*(1+G2/100+H2/100)</f>
-        <v>8338400.5977359992</v>
+        <v>8671016.7426959984</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>ROUND(B10/1000,2)&amp;"K"</f>
-        <v>164.82K</v>
+        <v>168.93K</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>ROUND(C10/1000/1000,2)&amp;"M"</f>
-        <v>3.28M</v>
+        <v>3.42M</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>ROUND(D10/1000,2)&amp;"K"</f>
-        <v>418.38K</v>
+        <v>428.83K</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>ROUND(E10/1000/1000,2)&amp;"M"</f>
-        <v>8.34M</v>
+        <v>8.67M</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1300,23 +1300,23 @@
       </c>
       <c r="B11" s="1">
         <f>N3*1</f>
-        <v>275840.13974399999</v>
+        <v>275960.38391999993</v>
       </c>
       <c r="C11" s="1">
         <f>B11*(1+G3/100+H3/100)</f>
-        <v>5991247.8352396796</v>
+        <v>5993859.5387423979</v>
       </c>
       <c r="D11" s="1">
         <f>O3*1</f>
-        <v>700209.58550399996</v>
+        <v>700514.82071999984</v>
       </c>
       <c r="E11" s="1">
         <f>D11*(1+G2/100+H2/100)</f>
-        <v>13955177.039094718</v>
+        <v>14164409.674958397</v>
       </c>
       <c r="F11" s="1" t="str">
         <f>ROUND(B11/1000,2)&amp;"K"</f>
-        <v>275.84K</v>
+        <v>275.96K</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>ROUND(C11/1000/1000,2)&amp;"M"</f>
@@ -1324,11 +1324,11 @@
       </c>
       <c r="H11" s="1" t="str">
         <f>ROUND(D11/1000,2)&amp;"K"</f>
-        <v>700.21K</v>
+        <v>700.51K</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>ROUND(E11/1000/1000,2)&amp;"M"</f>
-        <v>13.96M</v>
+        <v>14.16M</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1366,35 +1366,35 @@
       </c>
       <c r="B14" s="1">
         <f>N2*1.1</f>
-        <v>181299.89591999998</v>
+        <v>185827.92228</v>
       </c>
       <c r="C14" s="1">
         <f>B14*(1+G2/100+H2/100)</f>
-        <v>3613306.9256855994</v>
+        <v>3757440.5885015996</v>
       </c>
       <c r="D14" s="1">
         <f>O2*1.1</f>
-        <v>460222.81271999999</v>
+        <v>471717.03347999998</v>
       </c>
       <c r="E14" s="1">
         <f>D14*(1+G2/100+H2/100)</f>
-        <v>9172240.6575095989</v>
+        <v>9538118.4169655982</v>
       </c>
       <c r="F14" s="1" t="str">
         <f>ROUND(B14/1000,2)&amp;"K"</f>
-        <v>181.3K</v>
+        <v>185.83K</v>
       </c>
       <c r="G14" s="1" t="str">
         <f>ROUND(C14/1000/1000,2)&amp;"M"</f>
-        <v>3.61M</v>
+        <v>3.76M</v>
       </c>
       <c r="H14" s="1" t="str">
         <f>ROUND(D14/1000,2)&amp;"K"</f>
-        <v>460.22K</v>
+        <v>471.72K</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>ROUND(E14/1000/1000,2)&amp;"M"</f>
-        <v>9.17M</v>
+        <v>9.54M</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1403,35 +1403,35 @@
       </c>
       <c r="B15" s="1">
         <f>N3*1.1</f>
-        <v>303424.15371839999</v>
+        <v>303556.42231199995</v>
       </c>
       <c r="C15" s="1">
         <f>B15*(1+G2/100+H2/100)</f>
-        <v>6047243.3836077116</v>
+        <v>6137910.8591486383</v>
       </c>
       <c r="D15" s="1">
         <f>O3*1.1</f>
-        <v>770230.54405440006</v>
+        <v>770566.30279199989</v>
       </c>
       <c r="E15" s="1">
         <f>D15*(1+G2/100+H2/100)</f>
-        <v>15350694.743004194</v>
+        <v>15580850.642454237</v>
       </c>
       <c r="F15" s="1" t="str">
         <f>ROUND(B15/1000,2)&amp;"K"</f>
-        <v>303.42K</v>
+        <v>303.56K</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>ROUND(C15/1000/1000,2)&amp;"M"</f>
-        <v>6.05M</v>
+        <v>6.14M</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>ROUND(D15/1000,2)&amp;"K"</f>
-        <v>770.23K</v>
+        <v>770.57K</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>ROUND(E15/1000/1000,2)&amp;"M"</f>
-        <v>15.35M</v>
+        <v>15.58M</v>
       </c>
     </row>
   </sheetData>
